--- a/crypto/crypto.xlsx
+++ b/crypto/crypto.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="222">
   <si>
     <t>This is because there is a difference in potential profit or loss between keeping your coins in a pool and keeping them in your wallet.</t>
   </si>
@@ -789,6 +789,10 @@
   </si>
   <si>
     <t xml:space="preserve">*2014-04-09_Stayk.fi rebranding &lt;https://www.stayk.fi/stayk&gt; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XBULLB3MSCLJMOS2V42J34OSSKPGIZFDUSZFMDJQFBCV76BGNSMTACAKBG5ZXLM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1157,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1872,6 +1876,9 @@
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="C58" s="4" t="s">
         <v>69</v>
       </c>
